--- a/pred_ohlcv/54_21/2020-01-14 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LRC ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>109177.3063403135</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>107037.3063403135</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>110064.2463403135</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-28991.19175968645</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-54020.29285968645</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-54020.29285968645</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-54020.29285968645</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-52200.15185968645</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-88144.40365968645</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-74001.40365968645</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-152748.3647596865</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-141688.5845596865</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-143644.5845596865</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-142264.5845596865</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-143644.5845596865</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-144816.5845596865</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-169896.3752596865</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-206067.8315596865</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-251137.4629596865</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-84601.26555968646</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-92835.90955968646</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-46652.04815968646</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-55735.84375968646</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-3635.843759686461</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-150747.1433596865</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-236973.2710596864</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-353474.7533868105</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-517364.6535868105</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-517326.6535868105</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-517268.6535868105</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-502999.6312343004</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-499937.9127343004</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-500116.8000343004</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-500098.8000343004</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 LRC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LRC ohlcv.xlsx
@@ -1666,7 +1666,7 @@
         <v>-250467.0187596865</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-349412.2117196518</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-349393.2117196518</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-355800.8050868104</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-355800.8050868104</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-355755.8844868104</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-376669.9146868104</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-378178.4142868104</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-374520.3332868104</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-379269.6708868104</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-370573.5898868104</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-415573.5898868104</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-474017.0773868104</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-408124.3816868104</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-392791.3868868104</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-390736.6359868104</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-409930.6468868104</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-409892.6468868104</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-410536.5068868104</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-400691.2781868104</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-400654.2781868104</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-415116.9109868105</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-411659.9539868105</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-411483.9539868105</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-386170.4662868105</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-353474.7533868105</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-517364.6535868105</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-517326.6535868105</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-517268.6535868105</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-502999.6312343004</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-499956.9127343004</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-499937.9127343004</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-500116.8000343004</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-500098.8000343004</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-489977.8466343004</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-586350.8524343004</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
